--- a/results/results_etwfe_logit_pt.xlsx
+++ b/results/results_etwfe_logit_pt.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,16 +391,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.008216552131804928</v>
+        <v>0.008216552131804798</v>
       </c>
       <c r="B2">
-        <v>0.004524165000852355</v>
+        <v>0.004524165000858666</v>
       </c>
       <c r="C2">
-        <v>0.0119089392627575</v>
+        <v>0.01190893926275093</v>
       </c>
       <c r="D2">
-        <v>1.29205819254777E-05</v>
+        <v>1.292058192503237e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -413,16 +413,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.004192066627667878</v>
+        <v>0.004192066627668054</v>
       </c>
       <c r="B3">
-        <v>0.0006755765734579805</v>
+        <v>0.0006755765734546807</v>
       </c>
       <c r="C3">
-        <v>0.007708556681877776</v>
+        <v>0.007708556681881428</v>
       </c>
       <c r="D3">
-        <v>0.01946489265746543</v>
+        <v>0.01946489265758056</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -435,16 +435,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.002165749573325425</v>
+        <v>-0.002165749573325174</v>
       </c>
       <c r="B4">
-        <v>-0.006520832701041864</v>
+        <v>-0.006520832701037841</v>
       </c>
       <c r="C4">
-        <v>0.002189333554391014</v>
+        <v>0.002189333554387493</v>
       </c>
       <c r="D4">
-        <v>0.3297214389124731</v>
+        <v>0.3297214389121102</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -457,16 +457,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.00358437731676393</v>
+        <v>-0.003584377316763802</v>
       </c>
       <c r="B5">
-        <v>-0.008758755455905064</v>
+        <v>-0.008758755455937101</v>
       </c>
       <c r="C5">
-        <v>0.001590000822377204</v>
+        <v>0.001590000822409498</v>
       </c>
       <c r="D5">
-        <v>0.1745590656166217</v>
+        <v>0.1745590656193164</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -479,16 +479,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.0003132677505566095</v>
+        <v>0.0003132677505568555</v>
       </c>
       <c r="B6">
-        <v>-0.005453764589443905</v>
+        <v>-0.005453764589472099</v>
       </c>
       <c r="C6">
-        <v>0.006080300090557125</v>
+        <v>0.006080300090585809</v>
       </c>
       <c r="D6">
-        <v>0.9152125415957173</v>
+        <v>0.9152125415960675</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -501,16 +501,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.01779130452655577</v>
+        <v>-0.01779130452655492</v>
       </c>
       <c r="B7">
-        <v>-0.0213641535755784</v>
+        <v>-0.02136415357558268</v>
       </c>
       <c r="C7">
-        <v>-0.01421845547753314</v>
+        <v>-0.01421845547752715</v>
       </c>
       <c r="D7">
-        <v>1.674741122944887E-22</v>
+        <v>1.674741123184307e-22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -523,16 +523,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.001437880825763615</v>
+        <v>-0.001437880825763811</v>
       </c>
       <c r="B8">
-        <v>-0.00498634317337947</v>
+        <v>-0.004986343173373846</v>
       </c>
       <c r="C8">
-        <v>0.00211058152185224</v>
+        <v>0.002110581521846224</v>
       </c>
       <c r="D8">
-        <v>0.4270780512095032</v>
+        <v>0.4270780512086822</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.001046846747168162</v>
+        <v>-0.001046846747167539</v>
       </c>
       <c r="B9">
-        <v>-0.004637677587714593</v>
+        <v>-0.004637677587692333</v>
       </c>
       <c r="C9">
-        <v>0.002543984093378269</v>
+        <v>0.002543984093357256</v>
       </c>
       <c r="D9">
-        <v>0.567732081143396</v>
+        <v>0.5677320811412934</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -567,16 +567,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.006523078952051996</v>
+        <v>-0.006523078952051591</v>
       </c>
       <c r="B10">
-        <v>-0.01022622167448935</v>
+        <v>-0.01022622167448765</v>
       </c>
       <c r="C10">
-        <v>-0.002819936229614644</v>
+        <v>-0.002819936229615528</v>
       </c>
       <c r="D10">
-        <v>0.0005554733145594059</v>
+        <v>0.0005554733145573713</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.007673380461556508</v>
+        <v>-0.007673380461557095</v>
       </c>
       <c r="B11">
-        <v>-0.01120190198112948</v>
+        <v>-0.01120190198111497</v>
       </c>
       <c r="C11">
-        <v>-0.004144858941983532</v>
+        <v>-0.004144858941999225</v>
       </c>
       <c r="D11">
-        <v>2.023509972984173E-05</v>
+        <v>2.023509972815955e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -611,16 +611,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.005600445450919348</v>
+        <v>-0.005600445450918591</v>
       </c>
       <c r="B12">
-        <v>-0.009186436879653403</v>
+        <v>-0.009186436879648166</v>
       </c>
       <c r="C12">
-        <v>-0.002014454022185293</v>
+        <v>-0.002014454022189016</v>
       </c>
       <c r="D12">
-        <v>0.002206090350969519</v>
+        <v>0.002206090350944393</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.007120035993228979</v>
+        <v>-0.007120035993228881</v>
       </c>
       <c r="B13">
-        <v>-0.01074268762047551</v>
+        <v>-0.01074268762047206</v>
       </c>
       <c r="C13">
-        <v>-0.003497384365982447</v>
+        <v>-0.003497384365985707</v>
       </c>
       <c r="D13">
-        <v>0.0001170830626527122</v>
+        <v>0.0001170830626510298</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02678549459885016</v>
+        <v>0.02678549459885031</v>
       </c>
       <c r="B14">
-        <v>0.0230634050385375</v>
+        <v>0.02306340503815576</v>
       </c>
       <c r="C14">
-        <v>0.03050758415916282</v>
+        <v>0.03050758415954485</v>
       </c>
       <c r="D14">
-        <v>3.557734372612365E-45</v>
+        <v>3.557734445587954e-45</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -677,16 +677,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.0002887107707963949</v>
+        <v>0.000288710770796792</v>
       </c>
       <c r="B15">
-        <v>-0.003120900373965913</v>
+        <v>-0.003120900373950904</v>
       </c>
       <c r="C15">
-        <v>0.003698321915558702</v>
+        <v>0.003698321915544488</v>
       </c>
       <c r="D15">
-        <v>0.8681875871520777</v>
+        <v>0.8681875871513384</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -699,16 +699,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>2.926782726133967E-05</v>
+        <v>2.926782726031736e-05</v>
       </c>
       <c r="B16">
-        <v>-0.003500991967141076</v>
+        <v>-0.003500991967141951</v>
       </c>
       <c r="C16">
-        <v>0.003559527621663755</v>
+        <v>0.003559527621662586</v>
       </c>
       <c r="D16">
-        <v>0.987035586995675</v>
+        <v>0.9870355869961273</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -721,16 +721,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.02418890740316497</v>
+        <v>-0.02418890740316428</v>
       </c>
       <c r="B17">
-        <v>-0.02784992063495572</v>
+        <v>-0.02784992063495464</v>
       </c>
       <c r="C17">
-        <v>-0.02052789417137422</v>
+        <v>-0.02052789417137391</v>
       </c>
       <c r="D17">
-        <v>2.355684946154737E-38</v>
+        <v>2.355684946124702e-38</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -743,16 +743,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.01288813633827052</v>
+        <v>-0.01288813633827065</v>
       </c>
       <c r="B18">
-        <v>-0.01643431620405868</v>
+        <v>-0.0164343162040493</v>
       </c>
       <c r="C18">
-        <v>-0.009341956472482347</v>
+        <v>-0.009341956472492009</v>
       </c>
       <c r="D18">
-        <v>1.054205744072647E-12</v>
+        <v>1.054205743925675e-12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -765,16 +765,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0254099951168877</v>
+        <v>0.04500995432424933</v>
       </c>
       <c r="B19">
-        <v>0.02167013542346127</v>
+        <v>-0.05153118680803551</v>
       </c>
       <c r="C19">
-        <v>0.02914985481031413</v>
+        <v>0.1415510954565342</v>
       </c>
       <c r="D19">
-        <v>1.850536316766483E-40</v>
+        <v>0.3608295969360001</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.03111467227543124</v>
+        <v>0.05149922998711907</v>
       </c>
       <c r="B20">
-        <v>0.02751472426745243</v>
+        <v>0.03756731134001726</v>
       </c>
       <c r="C20">
-        <v>0.03471462028341005</v>
+        <v>0.06543114863422088</v>
       </c>
       <c r="D20">
-        <v>2.275675663956673E-64</v>
+        <v>4.324654498119906e-13</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.04380052627365397</v>
+        <v>0.2132032300417807</v>
       </c>
       <c r="B21">
-        <v>0.02596775567326303</v>
+        <v>0.1516423838618305</v>
       </c>
       <c r="C21">
-        <v>0.06163329687404491</v>
+        <v>0.2747640762217309</v>
       </c>
       <c r="D21">
-        <v>1.47918192830601E-06</v>
+        <v>1.1375461399429e-11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -831,16 +831,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.01601486873244652</v>
+        <v>-0.01916080940441322</v>
       </c>
       <c r="B22">
-        <v>-0.01845871025900726</v>
+        <v>-0.01982120321477977</v>
       </c>
       <c r="C22">
-        <v>-0.01357102720588578</v>
+        <v>-0.01850041559404667</v>
       </c>
       <c r="D22">
-        <v>9.301137401515576E-38</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.006229894970409313</v>
+        <v>0.01823259732682479</v>
       </c>
       <c r="B23">
-        <v>-0.002050222107694958</v>
+        <v>-0.003803892051041622</v>
       </c>
       <c r="C23">
-        <v>0.01451001204851358</v>
+        <v>0.04026908670469119</v>
       </c>
       <c r="D23">
-        <v>0.1403035749547316</v>
+        <v>0.1048806328569849</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -875,16 +875,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.01174098359601678</v>
+        <v>-0.002886326140693339</v>
       </c>
       <c r="B24">
-        <v>-0.01984386022394506</v>
+        <v>-0.0196199932413039</v>
       </c>
       <c r="C24">
-        <v>-0.003638106968088497</v>
+        <v>0.01384734095991722</v>
       </c>
       <c r="D24">
-        <v>0.004511815275283003</v>
+        <v>0.7353129391792846</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -897,16 +897,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.00244364926342627</v>
+        <v>0.02465284952516974</v>
       </c>
       <c r="B25">
-        <v>-0.007158129911183989</v>
+        <v>0.01363469442274686</v>
       </c>
       <c r="C25">
-        <v>0.01204542843803653</v>
+        <v>0.03567100462759261</v>
       </c>
       <c r="D25">
-        <v>0.617913163028581</v>
+        <v>1.157882938786996e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -919,16 +919,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.04970962464668501</v>
+        <v>0.02997394440118734</v>
       </c>
       <c r="B26">
-        <v>0.04345254037222862</v>
+        <v>0.01367373264397763</v>
       </c>
       <c r="C26">
-        <v>0.05596670892114139</v>
+        <v>0.04627415615839704</v>
       </c>
       <c r="D26">
-        <v>1.145972153202442E-54</v>
+        <v>0.0003132173381642236</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.02454348685193935</v>
+        <v>0.01925031412618924</v>
       </c>
       <c r="B27">
-        <v>0.01541238157630037</v>
+        <v>0.003976157417186175</v>
       </c>
       <c r="C27">
-        <v>0.03367459212757833</v>
+        <v>0.03452447083519231</v>
       </c>
       <c r="D27">
-        <v>1.377793465938572E-07</v>
+        <v>0.01350449340486256</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -963,16 +963,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.009154876111659145</v>
+        <v>0.01389655814263538</v>
       </c>
       <c r="B28">
-        <v>-0.001826733870257707</v>
+        <v>-0.00603212901710929</v>
       </c>
       <c r="C28">
-        <v>0.020136486093576</v>
+        <v>0.03382524530238005</v>
       </c>
       <c r="D28">
-        <v>0.1022726802557302</v>
+        <v>0.1717159477535736</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -985,16 +985,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.01362707610667459</v>
+        <v>0.02706035774548078</v>
       </c>
       <c r="B29">
-        <v>0.0037377670859534</v>
+        <v>0.006154675614956764</v>
       </c>
       <c r="C29">
-        <v>0.02351638512739579</v>
+        <v>0.04796603987600479</v>
       </c>
       <c r="D29">
-        <v>0.006918275137209492</v>
+        <v>0.01118128966303022</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01962106728879693</v>
+        <v>0.03110094770387613</v>
       </c>
       <c r="B30">
-        <v>0.01025191873803957</v>
+        <v>0.01521641838351281</v>
       </c>
       <c r="C30">
-        <v>0.02899021583955429</v>
+        <v>0.04698547702423946</v>
       </c>
       <c r="D30">
-        <v>4.050191477673511E-05</v>
+        <v>0.0001242978177884198</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.01966904154951699</v>
+        <v>-0.007755241570003055</v>
       </c>
       <c r="B31">
-        <v>0.01048945084456484</v>
+        <v>-0.02423626349630354</v>
       </c>
       <c r="C31">
-        <v>0.02884863225446914</v>
+        <v>0.008725780356297428</v>
       </c>
       <c r="D31">
-        <v>2.673864165262059E-05</v>
+        <v>0.3563864268895937</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.01075548347923077</v>
+        <v>0.03856946408247439</v>
       </c>
       <c r="B32">
-        <v>0.002261656302206179</v>
+        <v>0.0292965753288535</v>
       </c>
       <c r="C32">
-        <v>0.01924931065625537</v>
+        <v>0.04784235283609529</v>
       </c>
       <c r="D32">
-        <v>0.01307042132126016</v>
+        <v>3.572616625569826e-16</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1073,60 +1073,60 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.01669027080715864</v>
+        <v>0.01199118525521261</v>
       </c>
       <c r="B33">
-        <v>-0.02644628842256425</v>
+        <v>0.004289250214028036</v>
       </c>
       <c r="C33">
-        <v>-0.006934253191753018</v>
+        <v>0.01969312029639718</v>
       </c>
       <c r="D33">
-        <v>0.0007992878810681278</v>
+        <v>0.002277171547265219</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.004505205223460048</v>
+        <v>0.003981230249176019</v>
       </c>
       <c r="B34">
-        <v>-0.00101775533300571</v>
+        <v>-0.01175717268352475</v>
       </c>
       <c r="C34">
-        <v>0.01002816577992581</v>
+        <v>0.01971963318187679</v>
       </c>
       <c r="D34">
-        <v>0.1098678403070095</v>
+        <v>0.6200369717176997</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.008125298158946968</v>
+        <v>0.005554097767889034</v>
       </c>
       <c r="B35">
-        <v>-0.004050744638432741</v>
+        <v>0.0007544264003792947</v>
       </c>
       <c r="C35">
-        <v>0.02030134095632668</v>
+        <v>0.01035376913539877</v>
       </c>
       <c r="D35">
-        <v>0.1909003933240513</v>
+        <v>0.02332695997642073</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
         </is>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.002026441967293154</v>
+        <v>0.01486764874433818</v>
       </c>
       <c r="B36">
-        <v>-0.01268782678804173</v>
+        <v>0.007105053693206862</v>
       </c>
       <c r="C36">
-        <v>0.01674071072262804</v>
+        <v>0.02263024379546949</v>
       </c>
       <c r="D36">
-        <v>0.7872177298649367</v>
+        <v>0.0001740998224929243</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1156,69 +1156,69 @@
         </is>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.006933220108964827</v>
+        <v>-0.004905548609080908</v>
       </c>
       <c r="B37">
-        <v>-0.01797208489600876</v>
+        <v>-0.009241754561518831</v>
       </c>
       <c r="C37">
-        <v>0.004105644678079105</v>
+        <v>-0.0005693426566429852</v>
       </c>
       <c r="D37">
-        <v>0.2183222151998802</v>
+        <v>0.02660213899154834</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.006127953319102362</v>
+        <v>-0.007663632859523049</v>
       </c>
       <c r="B38">
-        <v>-0.008178244037443282</v>
+        <v>-0.01191488235704202</v>
       </c>
       <c r="C38">
-        <v>0.02043415067564801</v>
+        <v>-0.003412383362004079</v>
       </c>
       <c r="D38">
-        <v>0.4011685923357106</v>
+        <v>0.0004105874472822463</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.007844184139969353</v>
+        <v>-0.006195828191603109</v>
       </c>
       <c r="B39">
-        <v>-0.01601905454810125</v>
+        <v>-0.008660457682785462</v>
       </c>
       <c r="C39">
-        <v>0.0003306862681625444</v>
+        <v>-0.003731198700420756</v>
       </c>
       <c r="D39">
-        <v>0.06001540988938525</v>
+        <v>8.343754223611776e-07</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F39">
@@ -1227,20 +1227,20 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.03561090404334216</v>
+        <v>0.0046132271320982</v>
       </c>
       <c r="B40">
-        <v>-0.0480029816638415</v>
+        <v>-0.0009463359225523396</v>
       </c>
       <c r="C40">
-        <v>-0.02321882642284282</v>
+        <v>0.01017279018674874</v>
       </c>
       <c r="D40">
-        <v>1.778061436199041E-08</v>
+        <v>0.1038766107046966</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F40">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01854776738651437</v>
+        <v>-0.006279497209285509</v>
       </c>
       <c r="B41">
-        <v>0.008295206796254024</v>
+        <v>-0.008500098822483051</v>
       </c>
       <c r="C41">
-        <v>0.02880032797677471</v>
+        <v>-0.004058895596087967</v>
       </c>
       <c r="D41">
-        <v>0.0003915062196763189</v>
+        <v>2.982571090729611e-08</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1266,109 +1266,109 @@
         </is>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.006307168817518203</v>
+        <v>0.01030513546654253</v>
       </c>
       <c r="B42">
-        <v>0.001393972872049312</v>
+        <v>0.008675747637020547</v>
       </c>
       <c r="C42">
-        <v>0.01122036476298709</v>
+        <v>0.0119345232960645</v>
       </c>
       <c r="D42">
-        <v>0.01186799167088134</v>
+        <v>2.751123751079032e-35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.008327612590713228</v>
+        <v>0.01993586954670705</v>
       </c>
       <c r="B43">
-        <v>-0.005460015007315921</v>
+        <v>0.006086110296203292</v>
       </c>
       <c r="C43">
-        <v>0.02211524018874238</v>
+        <v>0.0337856287972108</v>
       </c>
       <c r="D43">
-        <v>0.2364914609991038</v>
+        <v>0.004783741284691764</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.02650238558064071</v>
+        <v>0.01393402379881248</v>
       </c>
       <c r="B44">
-        <v>-0.04404344249893018</v>
+        <v>0.005363313696050056</v>
       </c>
       <c r="C44">
-        <v>-0.008961328662351237</v>
+        <v>0.02250473390157491</v>
       </c>
       <c r="D44">
-        <v>0.003063780124935737</v>
+        <v>0.001440277319212055</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.02527100954900227</v>
+        <v>0.02694331546461533</v>
       </c>
       <c r="B45">
-        <v>-0.02954491037832438</v>
+        <v>0.02138247043099006</v>
       </c>
       <c r="C45">
-        <v>-0.02099710871968016</v>
+        <v>0.03250416049824061</v>
       </c>
       <c r="D45">
-        <v>4.685303316531681E-31</v>
+        <v>2.173022287469634e-21</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.009005793388435112</v>
+        <v>0.01828446453381269</v>
       </c>
       <c r="B46">
-        <v>-0.005218028690052843</v>
+        <v>0.01593487441637039</v>
       </c>
       <c r="C46">
-        <v>0.02322961546692306</v>
+        <v>0.02063405465125499</v>
       </c>
       <c r="D46">
-        <v>0.2146247738643466</v>
+        <v>1.586874853415044e-52</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1376,223 +1376,223 @@
         </is>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.01873073030426121</v>
+        <v>-0.008237269602995647</v>
       </c>
       <c r="B47">
-        <v>0.001064027472444391</v>
+        <v>-0.01582686175319292</v>
       </c>
       <c r="C47">
-        <v>0.03639743313607804</v>
+        <v>-0.0006476774527983701</v>
       </c>
       <c r="D47">
-        <v>0.03770858591615624</v>
+        <v>0.03340159431972402</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.00144047706823295</v>
+        <v>-0.04477610428929114</v>
       </c>
       <c r="B48">
-        <v>-0.02105120175595954</v>
+        <v>-0.0591801622569706</v>
       </c>
       <c r="C48">
-        <v>0.01817024761949364</v>
+        <v>-0.03037204632161169</v>
       </c>
       <c r="D48">
-        <v>0.8855270931213561</v>
+        <v>1.110245192754805e-09</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02718316114354454</v>
+        <v>-0.02223925721267174</v>
       </c>
       <c r="B49">
-        <v>0.002410727287818899</v>
+        <v>-0.04445698811327185</v>
       </c>
       <c r="C49">
-        <v>0.05195559499927017</v>
+        <v>-2.152631207162983e-05</v>
       </c>
       <c r="D49">
-        <v>0.03150006704095035</v>
+        <v>0.04977844187301451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.01467500290433799</v>
+        <v>-0.03399199534345729</v>
       </c>
       <c r="B50">
-        <v>0.0008504853006654246</v>
+        <v>-0.06801782266236045</v>
       </c>
       <c r="C50">
-        <v>0.02849952050801056</v>
+        <v>3.383197544586797e-05</v>
       </c>
       <c r="D50">
-        <v>0.03747592924922694</v>
+        <v>0.05022823068320467</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.0003638775095138671</v>
+        <v>-0.0265018652361045</v>
       </c>
       <c r="B51">
-        <v>-0.02045728336454729</v>
+        <v>-0.046196639391579</v>
       </c>
       <c r="C51">
-        <v>0.01972952834551956</v>
+        <v>-0.006807091080629993</v>
       </c>
       <c r="D51">
-        <v>0.9716861693296335</v>
+        <v>0.008354795543374947</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.006227189321827828</v>
+        <v>-0.03626340360781245</v>
       </c>
       <c r="B52">
-        <v>-0.01188300291172715</v>
+        <v>-0.05238403498779894</v>
       </c>
       <c r="C52">
-        <v>0.02433738155538281</v>
+        <v>-0.02014277222782597</v>
       </c>
       <c r="D52">
-        <v>0.5003535381720918</v>
+        <v>1.038757585382892e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.004084649623806246</v>
+        <v>0.00896890119211019</v>
       </c>
       <c r="B53">
-        <v>-0.009127612469467458</v>
+        <v>-0.003307894672049935</v>
       </c>
       <c r="C53">
-        <v>0.01729691171707995</v>
+        <v>0.02124569705627032</v>
       </c>
       <c r="D53">
-        <v>0.5445582123233714</v>
+        <v>0.1521822505320973</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01892548598104582</v>
+        <v>0.02789930426727959</v>
       </c>
       <c r="B54">
-        <v>0.006178919642768876</v>
+        <v>0.01957264033200013</v>
       </c>
       <c r="C54">
-        <v>0.03167205231932276</v>
+        <v>0.03622596820255904</v>
       </c>
       <c r="D54">
-        <v>0.003613595516992738</v>
+        <v>5.132127341413185e-11</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.003483634730593258</v>
+        <v>0.02653567738537656</v>
       </c>
       <c r="B55">
-        <v>-0.01064827785993078</v>
+        <v>0.01939244396346971</v>
       </c>
       <c r="C55">
-        <v>0.003681008398744265</v>
+        <v>0.03367891080728342</v>
       </c>
       <c r="D55">
-        <v>0.3405975877335544</v>
+        <v>3.31667967968943e-13</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.05173522001510495</v>
+        <v>-0.005172142241574895</v>
       </c>
       <c r="B56">
-        <v>-0.06908315600447079</v>
+        <v>-0.01286577946422084</v>
       </c>
       <c r="C56">
-        <v>-0.03438728402573911</v>
+        <v>0.002521494981071048</v>
       </c>
       <c r="D56">
-        <v>5.064837046676887E-09</v>
+        <v>0.1876342722044897</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F56">
@@ -1601,20 +1601,20 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.0173017111884022</v>
+        <v>0.001426954147380829</v>
       </c>
       <c r="B57">
-        <v>-0.04278454218329117</v>
+        <v>-0.006357738933347251</v>
       </c>
       <c r="C57">
-        <v>0.008181119806486767</v>
+        <v>0.00921164722810891</v>
       </c>
       <c r="D57">
-        <v>0.1832783445610648</v>
+        <v>0.7193958000853308</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F57">
@@ -1623,20 +1623,20 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.04718725495693458</v>
+        <v>-0.001675487341598803</v>
       </c>
       <c r="B58">
-        <v>-0.06679305150143873</v>
+        <v>-0.009320269609470581</v>
       </c>
       <c r="C58">
-        <v>-0.02758145841243043</v>
+        <v>0.005969294926272974</v>
       </c>
       <c r="D58">
-        <v>2.390612717411481E-06</v>
+        <v>0.667515532421971</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F58">
@@ -1645,20 +1645,20 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.03902009592999023</v>
+        <v>-0.01676293280787394</v>
       </c>
       <c r="B59">
-        <v>-0.07272819262592364</v>
+        <v>-0.02452553512452681</v>
       </c>
       <c r="C59">
-        <v>-0.005311999234056813</v>
+        <v>-0.009000330491221072</v>
       </c>
       <c r="D59">
-        <v>0.02327859066134771</v>
+        <v>2.311701210578699e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F59">
@@ -1667,20 +1667,20 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.02197288205904971</v>
+        <v>0.0009507267140415232</v>
       </c>
       <c r="B60">
-        <v>-0.04529698541272659</v>
+        <v>-0.006994435410735073</v>
       </c>
       <c r="C60">
-        <v>0.001351221294627159</v>
+        <v>0.008895888838818118</v>
       </c>
       <c r="D60">
-        <v>0.0648314534697798</v>
+        <v>0.8145724472204303</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F60">
@@ -1689,20 +1689,20 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.02482797584112843</v>
+        <v>-0.02228613068180755</v>
       </c>
       <c r="B61">
-        <v>-0.04510943004433988</v>
+        <v>-0.03923494861554435</v>
       </c>
       <c r="C61">
-        <v>-0.004546521637916977</v>
+        <v>-0.005337312748070741</v>
       </c>
       <c r="D61">
-        <v>0.01642502293958002</v>
+        <v>0.009961246378609165</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F61">
@@ -1711,20 +1711,20 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.05396696902645234</v>
+        <v>-0.00460925765452866</v>
       </c>
       <c r="B62">
-        <v>-0.07393952419190608</v>
+        <v>-0.01195891218969495</v>
       </c>
       <c r="C62">
-        <v>-0.0339944138609986</v>
+        <v>0.002740396880637628</v>
       </c>
       <c r="D62">
-        <v>1.184101977722497E-07</v>
+        <v>0.2190078635046511</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F62">
@@ -1733,104 +1733,104 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.01561334321257726</v>
+        <v>-0.005086468009142916</v>
       </c>
       <c r="B63">
-        <v>-0.001495893292150354</v>
+        <v>-0.01263571969288193</v>
       </c>
       <c r="C63">
-        <v>0.03272257971730487</v>
+        <v>0.002462783674596097</v>
       </c>
       <c r="D63">
-        <v>0.07367916402643677</v>
+        <v>0.1866457177743556</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.04565363197621</v>
+        <v>-0.007067268374150807</v>
       </c>
       <c r="B64">
-        <v>0.03692288738582301</v>
+        <v>-0.01464091642764796</v>
       </c>
       <c r="C64">
-        <v>0.05438437656659699</v>
+        <v>0.0005063796793463408</v>
       </c>
       <c r="D64">
-        <v>1.198474988769205E-24</v>
+        <v>0.06741169087360686</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.01751581458948729</v>
+        <v>0.009635589657802923</v>
       </c>
       <c r="B65">
-        <v>0.009489936738469014</v>
+        <v>0.001896515560648891</v>
       </c>
       <c r="C65">
-        <v>0.02554169244050556</v>
+        <v>0.01737466375495696</v>
       </c>
       <c r="D65">
-        <v>1.89038517058476E-05</v>
+        <v>0.014676401865478</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.05325646225574718</v>
+        <v>0.00224929703573902</v>
       </c>
       <c r="B66">
-        <v>0.0451583480404943</v>
+        <v>-0.005762891821010554</v>
       </c>
       <c r="C66">
-        <v>0.06135457647100006</v>
+        <v>0.01026148589248859</v>
       </c>
       <c r="D66">
-        <v>5.15684621605226E-38</v>
+        <v>0.5821620996455292</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.005710301883496886</v>
+        <v>0.001735076352327517</v>
       </c>
       <c r="B67">
-        <v>-0.01263609990863166</v>
+        <v>-0.005814649357903246</v>
       </c>
       <c r="C67">
-        <v>0.001215496141637888</v>
+        <v>0.00928480206255828</v>
       </c>
       <c r="D67">
-        <v>0.1060975466341901</v>
+        <v>0.6523942861324328</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1838,263 +1838,263 @@
         </is>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.001293985897893525</v>
+        <v>-0.004483850453825507</v>
       </c>
       <c r="B68">
-        <v>-0.005449338270181238</v>
+        <v>-0.006856754673194566</v>
       </c>
       <c r="C68">
-        <v>0.008037310065968289</v>
+        <v>-0.002110946234456448</v>
       </c>
       <c r="D68">
-        <v>0.7068423849021587</v>
+        <v>0.0002125976075962994</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.001256491034897429</v>
+        <v>0.02718651382599032</v>
       </c>
       <c r="B69">
-        <v>-0.00803689855664641</v>
+        <v>0.02527697174847818</v>
       </c>
       <c r="C69">
-        <v>0.005523916486851551</v>
+        <v>0.02909605590350246</v>
       </c>
       <c r="D69">
-        <v>0.716451834217926</v>
+        <v>2.360754070935844e-171</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.01574403884118284</v>
+        <v>0.005063290307151237</v>
       </c>
       <c r="B70">
-        <v>-0.02261752754263584</v>
+        <v>0.002931819139466725</v>
       </c>
       <c r="C70">
-        <v>-0.008870550139729849</v>
+        <v>0.00719476147483575</v>
       </c>
       <c r="D70">
-        <v>7.142850993526459E-06</v>
+        <v>3.22605188977748e-06</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0002709459908156363</v>
+        <v>-0.005770339337796825</v>
       </c>
       <c r="B71">
-        <v>-0.006964739081575346</v>
+        <v>-0.007200318172283673</v>
       </c>
       <c r="C71">
-        <v>0.007506631063206618</v>
+        <v>-0.004340360503309978</v>
       </c>
       <c r="D71">
-        <v>0.9414938552395961</v>
+        <v>2.595306693093033e-15</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.01998096223939488</v>
+        <v>0.006166886923985593</v>
       </c>
       <c r="B72">
-        <v>-0.03538900703445445</v>
+        <v>0.004859207950964985</v>
       </c>
       <c r="C72">
-        <v>-0.004572917444335306</v>
+        <v>0.007474565897006201</v>
       </c>
       <c r="D72">
-        <v>0.01103283541607448</v>
+        <v>2.396818177174868e-20</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.004669430532838151</v>
+        <v>0.01393909819569284</v>
       </c>
       <c r="B73">
-        <v>-0.01101422495413565</v>
+        <v>0.01241282710185814</v>
       </c>
       <c r="C73">
-        <v>0.001675363888459351</v>
+        <v>0.01546536928952754</v>
       </c>
       <c r="D73">
-        <v>0.1491813787809021</v>
+        <v>1.180914808570995e-71</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-0.00568607471218583</v>
+        <v>0.009297027330105867</v>
       </c>
       <c r="B74">
-        <v>-0.01232158789958385</v>
+        <v>0.006300081307336208</v>
       </c>
       <c r="C74">
-        <v>0.0009494384752121877</v>
+        <v>0.01229397335287553</v>
       </c>
       <c r="D74">
-        <v>0.09305002421188507</v>
+        <v>1.200808219816846e-09</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.007547873776813757</v>
+        <v>-0.0003518131728342391</v>
       </c>
       <c r="B75">
-        <v>-0.01404299997442368</v>
+        <v>-0.002802010530201803</v>
       </c>
       <c r="C75">
-        <v>-0.001052747579203833</v>
+        <v>0.002098384184533325</v>
       </c>
       <c r="D75">
-        <v>0.02274802119440004</v>
+        <v>0.7783862117312104</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.007993146937433538</v>
+        <v>0.008913674147510443</v>
       </c>
       <c r="B76">
-        <v>0.001150518105434775</v>
+        <v>0.00447249320662398</v>
       </c>
       <c r="C76">
-        <v>0.0148357757694323</v>
+        <v>0.01335485508839691</v>
       </c>
       <c r="D76">
-        <v>0.02204962744213356</v>
+        <v>8.363196167908455e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0006882034975785866</v>
+        <v>0.01062254526286713</v>
       </c>
       <c r="B77">
-        <v>-0.006209622956051641</v>
+        <v>0.008090279944574109</v>
       </c>
       <c r="C77">
-        <v>0.007586029951208815</v>
+        <v>0.01315481058116015</v>
       </c>
       <c r="D77">
-        <v>0.8449642024278834</v>
+        <v>2.004533805962099e-16</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0002850192769529011</v>
+        <v>0.02342119714786575</v>
       </c>
       <c r="B78">
-        <v>-0.006402880443257188</v>
+        <v>0.02053193714429945</v>
       </c>
       <c r="C78">
-        <v>0.006972918997162989</v>
+        <v>0.02631045715143204</v>
       </c>
       <c r="D78">
-        <v>0.9334316395121957</v>
+        <v>7.667780610920561e-57</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-0.004483850453824826</v>
+        <v>0.01582548485760695</v>
       </c>
       <c r="B79">
-        <v>-0.006856754682533227</v>
+        <v>0.01232195378074391</v>
       </c>
       <c r="C79">
-        <v>-0.002110946225116424</v>
+        <v>0.01932901593447</v>
       </c>
       <c r="D79">
-        <v>0.0002125976198184661</v>
+        <v>8.5062689041153e-19</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2102,21 +2102,21 @@
         </is>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.02718651382599132</v>
+        <v>0.01429060256181426</v>
       </c>
       <c r="B80">
-        <v>0.02527697174692087</v>
+        <v>0.01232587640618424</v>
       </c>
       <c r="C80">
-        <v>0.02909605590506176</v>
+        <v>0.01625532871744428</v>
       </c>
       <c r="D80">
-        <v>2.360755572885102E-171</v>
+        <v>4.115762779399867e-46</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2124,21 +2124,21 @@
         </is>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.005063290307151639</v>
+        <v>0.02298460899026375</v>
       </c>
       <c r="B81">
-        <v>0.002931819151258974</v>
+        <v>0.01853798656047683</v>
       </c>
       <c r="C81">
-        <v>0.007194761463044303</v>
+        <v>0.02743123142005066</v>
       </c>
       <c r="D81">
-        <v>3.226051486402558E-06</v>
+        <v>4.02258096516071e-24</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2146,21 +2146,21 @@
         </is>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.005770339337794356</v>
+        <v>-0.009602990833397081</v>
       </c>
       <c r="B82">
-        <v>-0.007200318175636784</v>
+        <v>-0.01195387035355295</v>
       </c>
       <c r="C82">
-        <v>-0.004340360499951929</v>
+        <v>-0.007252111313241211</v>
       </c>
       <c r="D82">
-        <v>2.595307080021521E-15</v>
+        <v>1.183463055299398e-15</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.006166886923986484</v>
+        <v>0.01896244315700735</v>
       </c>
       <c r="B83">
-        <v>0.004859207962970934</v>
+        <v>0.0164265626348809</v>
       </c>
       <c r="C83">
-        <v>0.007474565885002033</v>
+        <v>0.0214983236791338</v>
       </c>
       <c r="D83">
-        <v>2.396816275775198E-20</v>
+        <v>1.234415504636547e-48</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2190,21 +2190,21 @@
         </is>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.0139390981956937</v>
+        <v>-0.008677799337640131</v>
       </c>
       <c r="B84">
-        <v>0.01241282708327026</v>
+        <v>-0.01109113558958169</v>
       </c>
       <c r="C84">
-        <v>0.01546536930811714</v>
+        <v>-0.006264463085698575</v>
       </c>
       <c r="D84">
-        <v>1.180919431131555E-71</v>
+        <v>1.820594874301751e-12</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
         </is>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.009297027330106891</v>
+        <v>0.00627604000216084</v>
       </c>
       <c r="B85">
-        <v>0.006300081311274077</v>
+        <v>0.003463866234589739</v>
       </c>
       <c r="C85">
-        <v>0.0122939733489397</v>
+        <v>0.009088213769731943</v>
       </c>
       <c r="D85">
-        <v>1.2008081599965E-09</v>
+        <v>1.219179660311561e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2234,21 +2234,21 @@
         </is>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.0003518131728323477</v>
+        <v>0.01256868744332155</v>
       </c>
       <c r="B86">
-        <v>-0.002802010526531948</v>
+        <v>0.009446984888242357</v>
       </c>
       <c r="C86">
-        <v>0.002098384180867253</v>
+        <v>0.01569038999840075</v>
       </c>
       <c r="D86">
-        <v>0.7783862114092793</v>
+        <v>2.991443654371306e-15</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2256,21 +2256,21 @@
         </is>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.008913674147511175</v>
+        <v>0.007022325857699221</v>
       </c>
       <c r="B87">
-        <v>0.004472493278395946</v>
+        <v>0.005009409195921279</v>
       </c>
       <c r="C87">
-        <v>0.0133548550166264</v>
+        <v>0.009035242519477162</v>
       </c>
       <c r="D87">
-        <v>8.363193954887596E-05</v>
+        <v>8.053455821866389e-12</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2278,21 +2278,21 @@
         </is>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0106225452628693</v>
+        <v>0.02956122009949214</v>
       </c>
       <c r="B88">
-        <v>0.008090279956380468</v>
+        <v>0.02730208096442734</v>
       </c>
       <c r="C88">
-        <v>0.01315481056935813</v>
+        <v>0.03182035923455695</v>
       </c>
       <c r="D88">
-        <v>2.004533165199846E-16</v>
+        <v>4.630254125577757e-145</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2300,267 +2300,267 @@
         </is>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.02342119714786747</v>
+        <v>-0.03927009142173743</v>
       </c>
       <c r="B89">
-        <v>0.0205319371436203</v>
+        <v>-0.06873930898446354</v>
       </c>
       <c r="C89">
-        <v>0.02631045715211464</v>
+        <v>-0.009800873859011322</v>
       </c>
       <c r="D89">
-        <v>7.667781068705186E-57</v>
+        <v>0.009006458112701709</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01582548485760827</v>
+        <v>0.02885715470528928</v>
       </c>
       <c r="B90">
-        <v>0.01232195377610254</v>
+        <v>0.02503435727907646</v>
       </c>
       <c r="C90">
-        <v>0.019329015939114</v>
+        <v>0.0326799521315021</v>
       </c>
       <c r="D90">
-        <v>8.506269798548465E-19</v>
+        <v>1.573579764788481e-49</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.01429060256181517</v>
+        <v>0.06160618564785366</v>
       </c>
       <c r="B91">
-        <v>0.01232587640481539</v>
+        <v>0.05568113892057551</v>
       </c>
       <c r="C91">
-        <v>0.01625532871881494</v>
+        <v>0.06753123237513181</v>
       </c>
       <c r="D91">
-        <v>4.115763365343211E-46</v>
+        <v>2.574005421494328e-92</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.02298460899026319</v>
+        <v>0.008438095588149739</v>
       </c>
       <c r="B92">
-        <v>0.01853798651551246</v>
+        <v>0.005051459611478678</v>
       </c>
       <c r="C92">
-        <v>0.02743123146501392</v>
+        <v>0.0118247315648208</v>
       </c>
       <c r="D92">
-        <v>4.022585180007422E-24</v>
+        <v>1.042618383261752e-06</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.009602990833396439</v>
+        <v>0.06757986941299224</v>
       </c>
       <c r="B93">
-        <v>-0.01195387034289589</v>
+        <v>0.0639762633397498</v>
       </c>
       <c r="C93">
-        <v>-0.007252111323896993</v>
+        <v>0.07118347548623467</v>
       </c>
       <c r="D93">
-        <v>1.183462706233565E-15</v>
+        <v>9.327267048093092e-296</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.01896244315700919</v>
+        <v>0.04894219256205753</v>
       </c>
       <c r="B94">
-        <v>0.01642656265126641</v>
+        <v>0.04488861685045487</v>
       </c>
       <c r="C94">
-        <v>0.02149832366275198</v>
+        <v>0.0529957682736602</v>
       </c>
       <c r="D94">
-        <v>1.234413783655483E-48</v>
+        <v>8.415158130341562e-124</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F94">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.008677799337639807</v>
+        <v>0.009092752299800593</v>
       </c>
       <c r="B95">
-        <v>-0.01109113559744826</v>
+        <v>0.003665660624854198</v>
       </c>
       <c r="C95">
-        <v>-0.006264463077831352</v>
+        <v>0.01451984397474699</v>
       </c>
       <c r="D95">
-        <v>1.820595174788881E-12</v>
+        <v>0.001024186879751291</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F95">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.006276040002162231</v>
+        <v>0.03559904661366146</v>
       </c>
       <c r="B96">
-        <v>0.003463866227871433</v>
+        <v>0.02907099292195954</v>
       </c>
       <c r="C96">
-        <v>0.009088213776453028</v>
+        <v>0.04212710030536337</v>
       </c>
       <c r="D96">
-        <v>1.219179718712348E-05</v>
+        <v>1.156487126811837e-26</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F96">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.0125686874433196</v>
+        <v>0.04453208993248774</v>
       </c>
       <c r="B97">
-        <v>0.009446984874555892</v>
+        <v>0.02399441840170142</v>
       </c>
       <c r="C97">
-        <v>0.01569039001208331</v>
+        <v>0.06506976146327406</v>
       </c>
       <c r="D97">
-        <v>2.991444483727848E-15</v>
+        <v>2.139477071907549e-05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F97">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.007022325857700478</v>
+        <v>0.06840075893915086</v>
       </c>
       <c r="B98">
-        <v>0.00500940920932825</v>
+        <v>0.04504079129011664</v>
       </c>
       <c r="C98">
-        <v>0.009035242506072705</v>
+        <v>0.09176072658818508</v>
       </c>
       <c r="D98">
-        <v>8.05345326267516E-12</v>
+        <v>9.523313553003103e-09</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F98">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.02956122009949572</v>
+        <v>0.0567758767150694</v>
       </c>
       <c r="B99">
-        <v>0.02730208098936436</v>
+        <v>0.04772886516716685</v>
       </c>
       <c r="C99">
-        <v>0.03182035920962709</v>
+        <v>0.06582288826297195</v>
       </c>
       <c r="D99">
-        <v>4.630220462020419E-145</v>
+        <v>9.052067094942803e-35</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F99">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.01270220634098893</v>
+        <v>0.01852757710698724</v>
       </c>
       <c r="B100">
-        <v>-0.004710801506275522</v>
+        <v>0.01218764196468835</v>
       </c>
       <c r="C100">
-        <v>0.03011521418825337</v>
+        <v>0.02486751224928613</v>
       </c>
       <c r="D100">
-        <v>0.1527950666155521</v>
+        <v>1.01788391644966e-08</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F100">
@@ -2569,20 +2569,20 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.003043018410165198</v>
+        <v>0.009152121051968703</v>
       </c>
       <c r="B101">
-        <v>-0.0142033003185431</v>
+        <v>0.002294582698424439</v>
       </c>
       <c r="C101">
-        <v>0.0202893371388735</v>
+        <v>0.01600965940551297</v>
       </c>
       <c r="D101">
-        <v>0.7294743092641095</v>
+        <v>0.008902328946666377</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F101">
@@ -2591,20 +2591,20 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.05700954866619276</v>
+        <v>-0.008791935623780559</v>
       </c>
       <c r="B102">
-        <v>-0.07645813767009282</v>
+        <v>-0.01547764677777788</v>
       </c>
       <c r="C102">
-        <v>-0.0375609596622927</v>
+        <v>-0.002106224469783233</v>
       </c>
       <c r="D102">
-        <v>9.179486453511211E-09</v>
+        <v>0.009954128479108877</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F102">
@@ -2613,20 +2613,20 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.03883507409924604</v>
+        <v>0.005020276575960955</v>
       </c>
       <c r="B103">
-        <v>-0.05671036720042866</v>
+        <v>-0.001018060878413317</v>
       </c>
       <c r="C103">
-        <v>-0.02095978099806342</v>
+        <v>0.01105861403033523</v>
       </c>
       <c r="D103">
-        <v>2.061427882012918E-05</v>
+        <v>0.1032040482431411</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F103">
@@ -2635,20 +2635,20 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.01172711567374808</v>
+        <v>-0.00514759399514851</v>
       </c>
       <c r="B104">
-        <v>-0.02881163931542245</v>
+        <v>-0.01079944089916195</v>
       </c>
       <c r="C104">
-        <v>0.005357407967926291</v>
+        <v>0.0005042529088649331</v>
       </c>
       <c r="D104">
-        <v>0.1785110911822153</v>
+        <v>0.0742454730397436</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F104">
@@ -2657,416 +2657,416 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.005163985369708357</v>
+        <v>-0.01578064638730066</v>
       </c>
       <c r="B105">
-        <v>-0.02823428997979266</v>
+        <v>-0.03250363027705636</v>
       </c>
       <c r="C105">
-        <v>0.01790631924037595</v>
+        <v>0.0009423375024550477</v>
       </c>
       <c r="D105">
-        <v>0.6608700466681253</v>
+        <v>0.06438271594206452</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-0.01198828324869395</v>
+        <v>-0.01326668213350509</v>
       </c>
       <c r="B106">
-        <v>-0.02922524343010843</v>
+        <v>-0.02090602075027213</v>
       </c>
       <c r="C106">
-        <v>0.00524867693272054</v>
+        <v>-0.005627343516738054</v>
       </c>
       <c r="D106">
-        <v>0.1728344895810019</v>
+        <v>0.000664732794456602</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-0.06805669937040376</v>
+        <v>-0.01119452994109618</v>
       </c>
       <c r="B107">
-        <v>-0.08673988325699135</v>
+        <v>-0.03093547362349583</v>
       </c>
       <c r="C107">
-        <v>-0.04937351548381617</v>
+        <v>0.008546413741303462</v>
       </c>
       <c r="D107">
-        <v>9.366779771164788E-13</v>
+        <v>0.2663789797031625</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.002308856434051901</v>
+        <v>-0.009784176922507295</v>
       </c>
       <c r="B108">
-        <v>-0.0318026036421007</v>
+        <v>-0.01938672032300593</v>
       </c>
       <c r="C108">
-        <v>0.02718489077399689</v>
+        <v>-0.0001816335220086573</v>
       </c>
       <c r="D108">
-        <v>0.878057856336969</v>
+        <v>0.0458211646693991</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>-0.004272539610652881</v>
+        <v>-0.007908990041499869</v>
       </c>
       <c r="B109">
-        <v>-0.03556194879063834</v>
+        <v>-0.01299180808495168</v>
       </c>
       <c r="C109">
-        <v>0.02701686956933257</v>
+        <v>-0.002826171998048061</v>
       </c>
       <c r="D109">
-        <v>0.788983172438359</v>
+        <v>0.002290302305972804</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F109">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.0603232062863897</v>
+        <v>0.01113373412439361</v>
       </c>
       <c r="B110">
-        <v>-0.09544372229392892</v>
+        <v>0.006207583699679953</v>
       </c>
       <c r="C110">
-        <v>-0.02520269027885048</v>
+        <v>0.01605988454910727</v>
       </c>
       <c r="D110">
-        <v>0.0007614355842468256</v>
+        <v>9.43332392580811e-06</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.01294485645859251</v>
+        <v>0.02057280502323498</v>
       </c>
       <c r="B111">
-        <v>-0.02941728345611063</v>
+        <v>0.01008276188143503</v>
       </c>
       <c r="C111">
-        <v>0.003527570538925624</v>
+        <v>0.03106284816503493</v>
       </c>
       <c r="D111">
-        <v>0.123502432739029</v>
+        <v>0.0001211282530958298</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F111">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.0241408549617208</v>
+        <v>-3.134635067011082e-140</v>
       </c>
       <c r="B112">
-        <v>-0.04287647731759864</v>
+        <v>-9.416695886558276e-137</v>
       </c>
       <c r="C112">
-        <v>-0.005405232605842962</v>
+        <v>9.410426616424253e-137</v>
       </c>
       <c r="D112">
-        <v>0.01155620043724866</v>
+        <v>0.9994792597387867</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="F112">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.04971884812533274</v>
+        <v>-5.204152504866967</v>
       </c>
       <c r="B113">
-        <v>-0.1182012386583779</v>
+        <v>-5.365041915857229</v>
       </c>
       <c r="C113">
-        <v>0.01876354240771246</v>
+        <v>-5.043263093876704</v>
       </c>
       <c r="D113">
-        <v>0.1547500826721429</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.001655647150269569</v>
+        <v>-0.02783060286642014</v>
       </c>
       <c r="B114">
-        <v>-0.01764247169787226</v>
+        <v>-0.0400294093323205</v>
       </c>
       <c r="C114">
-        <v>0.02095376599841139</v>
+        <v>-0.01563179640051978</v>
       </c>
       <c r="D114">
-        <v>0.866464047908321</v>
+        <v>7.767237827402417e-06</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.0412802678225447</v>
+        <v>-0.0880444310499333</v>
       </c>
       <c r="B115">
-        <v>0.02132587429576047</v>
+        <v>-0.1022214189978703</v>
       </c>
       <c r="C115">
-        <v>0.06123466134932894</v>
+        <v>-0.07386744310199632</v>
       </c>
       <c r="D115">
-        <v>5.02120444613885E-05</v>
+        <v>4.37599997565148e-34</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F115">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.02058030113501168</v>
+        <v>-0.0553673360220384</v>
       </c>
       <c r="B116">
-        <v>-0.04278035567775955</v>
+        <v>-0.07653239434889375</v>
       </c>
       <c r="C116">
-        <v>0.001619753407736183</v>
+        <v>-0.03420227769518304</v>
       </c>
       <c r="D116">
-        <v>0.0692229768341759</v>
+        <v>2.940463630536419e-07</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F116">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.006714032128810161</v>
+        <v>-0.004585074307380799</v>
       </c>
       <c r="B117">
-        <v>-0.02612276546755079</v>
+        <v>-0.01465788279090432</v>
       </c>
       <c r="C117">
-        <v>0.01269470120993046</v>
+        <v>0.005487734176142725</v>
       </c>
       <c r="D117">
-        <v>0.4977671210062787</v>
+        <v>0.3723059181652332</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F117">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.01430585893410436</v>
+        <v>0.0303981811002658</v>
       </c>
       <c r="B118">
-        <v>-0.003492200300702379</v>
+        <v>0.01959507476807458</v>
       </c>
       <c r="C118">
-        <v>0.0321039181689111</v>
+        <v>0.04120128743245701</v>
       </c>
       <c r="D118">
-        <v>0.1151653658407364</v>
+        <v>3.487416435968171e-08</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0209056842076663</v>
+        <v>-0.001692467189848271</v>
       </c>
       <c r="B119">
-        <v>0.002735086115905328</v>
+        <v>-0.01149556526051138</v>
       </c>
       <c r="C119">
-        <v>0.03907628229942728</v>
+        <v>0.008110630880814835</v>
       </c>
       <c r="D119">
-        <v>0.02413440166029288</v>
+        <v>0.7350766584534963</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F119">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.02147188461090476</v>
+        <v>-0.09008362245318255</v>
       </c>
       <c r="B120">
-        <v>0.002564900238044166</v>
+        <v>-0.09996990454425282</v>
       </c>
       <c r="C120">
-        <v>0.04037886898376535</v>
+        <v>-0.08019734036211228</v>
       </c>
       <c r="D120">
-        <v>0.0260241972756261</v>
+        <v>2.453200854240618e-71</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F120">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.04172908406638104</v>
+        <v>0.02138418008247413</v>
       </c>
       <c r="B121">
-        <v>-0.06051789754177397</v>
+        <v>0.005884489289426281</v>
       </c>
       <c r="C121">
-        <v>-0.0229402705909881</v>
+        <v>0.03688387087552198</v>
       </c>
       <c r="D121">
-        <v>1.342937770077148E-05</v>
+        <v>0.006849620493366975</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F121">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.06206669622872251</v>
+        <v>0.03249010722911844</v>
       </c>
       <c r="B122">
-        <v>-0.08293363220505318</v>
+        <v>0.01612484963211359</v>
       </c>
       <c r="C122">
-        <v>-0.04119976025239185</v>
+        <v>0.0488553648261233</v>
       </c>
       <c r="D122">
-        <v>5.551893736205141E-09</v>
+        <v>9.97760598868623e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F122">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.126614724410695</v>
+        <v>0.09943307612024105</v>
       </c>
       <c r="B123">
-        <v>0.1110117088766161</v>
+        <v>-0.01466307112753601</v>
       </c>
       <c r="C123">
-        <v>0.142217739944774</v>
+        <v>0.2135292233680181</v>
       </c>
       <c r="D123">
-        <v>5.884328738728074E-57</v>
+        <v>0.08762166055825622</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F123">
@@ -3075,20 +3075,20 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.01087908874859391</v>
+        <v>0.215085206167462</v>
       </c>
       <c r="B124">
-        <v>-0.01928937364161207</v>
+        <v>0.1677529584175916</v>
       </c>
       <c r="C124">
-        <v>-0.002468803855575746</v>
+        <v>0.2624174539173324</v>
       </c>
       <c r="D124">
-        <v>0.01123500393722241</v>
+        <v>5.272323767065622e-19</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F124">
@@ -3097,20 +3097,20 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.005741893426289967</v>
+        <v>-0.1381765825942761</v>
       </c>
       <c r="B125">
-        <v>-0.02699902972973806</v>
+        <v>-0.2005049123184717</v>
       </c>
       <c r="C125">
-        <v>0.038482816582318</v>
+        <v>-0.07584825287008055</v>
       </c>
       <c r="D125">
-        <v>0.7310524074039111</v>
+        <v>1.392295294241019e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F125">
@@ -3119,20 +3119,20 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.004676491994977308</v>
+        <v>0.08272422763291419</v>
       </c>
       <c r="B126">
-        <v>-0.03181386921879593</v>
+        <v>-0.04623451414472889</v>
       </c>
       <c r="C126">
-        <v>0.02246088522884131</v>
+        <v>0.2116829694105573</v>
       </c>
       <c r="D126">
-        <v>0.7355486280321637</v>
+        <v>0.2086543407883678</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F126">
@@ -3141,20 +3141,20 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.00802682110158527</v>
+        <v>-0.1967060771215139</v>
       </c>
       <c r="B127">
-        <v>-0.02251098461064897</v>
+        <v>-0.343178460810617</v>
       </c>
       <c r="C127">
-        <v>0.03856462681381951</v>
+        <v>-0.05023369343241085</v>
       </c>
       <c r="D127">
-        <v>0.6064315102265552</v>
+        <v>0.008484717463816321</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F127">
@@ -3163,529 +3163,23 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.008012504531428197</v>
+        <v>0.002121746911008496</v>
       </c>
       <c r="B128">
-        <v>-0.01864471011396358</v>
+        <v>-0.00663662797254442</v>
       </c>
       <c r="C128">
-        <v>0.002619701051107187</v>
+        <v>0.01088012179456141</v>
       </c>
       <c r="D128">
-        <v>0.1396642252123416</v>
+        <v>0.6349237434177797</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>-0.01312759795156207</v>
-      </c>
-      <c r="B129">
-        <v>-0.02547761608371343</v>
-      </c>
-      <c r="C129">
-        <v>-0.0007775798194107082</v>
-      </c>
-      <c r="D129">
-        <v>0.03721779151156719</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>0.01935604802567072</v>
-      </c>
-      <c r="B130">
-        <v>0.01132258823117515</v>
-      </c>
-      <c r="C130">
-        <v>0.02738950782016629</v>
-      </c>
-      <c r="D130">
-        <v>2.330853373603053E-06</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>0.01785001382136938</v>
-      </c>
-      <c r="B131">
-        <v>0.009848191252537601</v>
-      </c>
-      <c r="C131">
-        <v>0.02585183639020115</v>
-      </c>
-      <c r="D131">
-        <v>1.230137571031495E-05</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>0.01025425464974975</v>
-      </c>
-      <c r="B132">
-        <v>-0.009086310202717681</v>
-      </c>
-      <c r="C132">
-        <v>0.02959481950221718</v>
-      </c>
-      <c r="D132">
-        <v>0.2987296465712981</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>0.03621297947937773</v>
-      </c>
-      <c r="B133">
-        <v>-0.00540731671381714</v>
-      </c>
-      <c r="C133">
-        <v>0.0778332756725726</v>
-      </c>
-      <c r="D133">
-        <v>0.08813380981384344</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>0.01328126850406903</v>
-      </c>
-      <c r="B134">
-        <v>-0.01099821868332937</v>
-      </c>
-      <c r="C134">
-        <v>0.03756075569146742</v>
-      </c>
-      <c r="D134">
-        <v>0.283660881195106</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>-0.02399802454308979</v>
-      </c>
-      <c r="B135">
-        <v>-0.03319112621021787</v>
-      </c>
-      <c r="C135">
-        <v>-0.01480492287596171</v>
-      </c>
-      <c r="D135">
-        <v>3.114800012702631E-07</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>-0.02028889375894593</v>
-      </c>
-      <c r="B136">
-        <v>-0.03643156504217608</v>
-      </c>
-      <c r="C136">
-        <v>-0.00414622247571577</v>
-      </c>
-      <c r="D136">
-        <v>0.01376347324916298</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>0.03028740157024726</v>
-      </c>
-      <c r="B137">
-        <v>0.0196087177023853</v>
-      </c>
-      <c r="C137">
-        <v>0.04096608543810923</v>
-      </c>
-      <c r="D137">
-        <v>2.714102049175765E-08</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>0.02116541565042675</v>
-      </c>
-      <c r="B138">
-        <v>-0.01361031728462295</v>
-      </c>
-      <c r="C138">
-        <v>0.05594114858547646</v>
-      </c>
-      <c r="D138">
-        <v>0.2329143896785663</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>0.02120180276605907</v>
-      </c>
-      <c r="B139">
-        <v>0.01166056247786859</v>
-      </c>
-      <c r="C139">
-        <v>0.03074304305424955</v>
-      </c>
-      <c r="D139">
-        <v>1.328971338571811E-05</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>0.008916233702890478</v>
-      </c>
-      <c r="B140">
-        <v>-0.001091153767192054</v>
-      </c>
-      <c r="C140">
-        <v>0.01892362117297301</v>
-      </c>
-      <c r="D140">
-        <v>0.08076584398369262</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>-15.70690090908276</v>
-      </c>
-      <c r="B141">
-        <v>-15.99283663947477</v>
-      </c>
-      <c r="C141">
-        <v>-15.42096517869075</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>-0.01000251214022077</v>
-      </c>
-      <c r="B142">
-        <v>-0.02356832999174555</v>
-      </c>
-      <c r="C142">
-        <v>0.003563305711304013</v>
-      </c>
-      <c r="D142">
-        <v>0.1484173743308922</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>0.008180008268271474</v>
-      </c>
-      <c r="B143">
-        <v>-0.002453085193456639</v>
-      </c>
-      <c r="C143">
-        <v>0.01881310172999959</v>
-      </c>
-      <c r="D143">
-        <v>0.1316070878883777</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>-0.02378164586364801</v>
-      </c>
-      <c r="B144">
-        <v>-0.0327145729154807</v>
-      </c>
-      <c r="C144">
-        <v>-0.01484871881181533</v>
-      </c>
-      <c r="D144">
-        <v>1.809577214818527E-07</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>-0.01249976126590454</v>
-      </c>
-      <c r="B145">
-        <v>-0.02014082649833361</v>
-      </c>
-      <c r="C145">
-        <v>-0.004858696033475458</v>
-      </c>
-      <c r="D145">
-        <v>0.001344822075445907</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>-0.01271326856545804</v>
-      </c>
-      <c r="B146">
-        <v>-0.02831498922042935</v>
-      </c>
-      <c r="C146">
-        <v>0.00288845208951328</v>
-      </c>
-      <c r="D146">
-        <v>0.1102428402792078</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>0.00521339052705037</v>
-      </c>
-      <c r="B147">
-        <v>-0.00171355304568403</v>
-      </c>
-      <c r="C147">
-        <v>0.01214033409978477</v>
-      </c>
-      <c r="D147">
-        <v>0.1401808793362112</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>-0.009784176922505999</v>
-      </c>
-      <c r="B148">
-        <v>-0.01938672032300481</v>
-      </c>
-      <c r="C148">
-        <v>-0.0001816335220071897</v>
-      </c>
-      <c r="D148">
-        <v>0.04582116466943172</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>-0.007908990041499657</v>
-      </c>
-      <c r="B149">
-        <v>-0.01299180808495148</v>
-      </c>
-      <c r="C149">
-        <v>-0.002826171998047834</v>
-      </c>
-      <c r="D149">
-        <v>0.002290302305973501</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>0.01113373412439388</v>
-      </c>
-      <c r="B150">
-        <v>0.006207583699680236</v>
-      </c>
-      <c r="C150">
-        <v>0.01605988454910752</v>
-      </c>
-      <c r="D150">
-        <v>9.433323925802869E-06</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>0.02938382302294557</v>
-      </c>
-      <c r="B151">
-        <v>0.0200298402504453</v>
-      </c>
-      <c r="C151">
-        <v>0.03873780579544584</v>
-      </c>
-      <c r="D151">
-        <v>7.419775868682953E-10</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
-      <c r="F151">
         <v>2</v>
       </c>
     </row>
